--- a/databases/oportunidades/Oportunidad - Cierre de la brecha digital.xlsx
+++ b/databases/oportunidades/Oportunidad - Cierre de la brecha digital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{320ABA85-CB37-428B-8CB5-C1390D94B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD0A103-7106-4F9D-BB0B-4797B22DF619}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{320ABA85-CB37-428B-8CB5-C1390D94B560}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{208D6688-61F7-411A-9C5D-FE5C571F3D41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
   <si>
     <t>Total</t>
   </si>
@@ -242,60 +242,18 @@
     <t>Europa Occidental</t>
   </si>
   <si>
-    <t>Europa del Sur</t>
-  </si>
-  <si>
-    <t>Europa del Este</t>
-  </si>
-  <si>
     <t>América del Sur</t>
   </si>
   <si>
-    <t>América Central</t>
-  </si>
-  <si>
-    <t>Asia Oriental</t>
-  </si>
-  <si>
     <t>Oceanía</t>
   </si>
   <si>
     <t>Asia Central</t>
   </si>
   <si>
-    <t>Asia Sudoriental</t>
-  </si>
-  <si>
-    <t>África del Sur</t>
-  </si>
-  <si>
-    <t>Asia Occidental</t>
-  </si>
-  <si>
-    <t>África del Norte</t>
-  </si>
-  <si>
-    <t>Caribe</t>
-  </si>
-  <si>
-    <t>Mundial</t>
-  </si>
-  <si>
-    <t>África Occidental</t>
-  </si>
-  <si>
     <t>África Central</t>
   </si>
   <si>
-    <t>África Oriental</t>
-  </si>
-  <si>
-    <t>Asia del Sur</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>https://www.statista.com/statistics/269329/penetration-rate-of-the-internet-by-region/</t>
   </si>
   <si>
@@ -396,6 +354,9 @@
   </si>
   <si>
     <t>$Departamento: Población de 6 y más años de edad que hace uso del servicio de internet.</t>
+  </si>
+  <si>
+    <t>Mundo</t>
   </si>
 </sst>
 </file>
@@ -406,10 +367,17 @@
     <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -575,78 +543,79 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,7 +779,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -827,7 +796,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja3"/>
@@ -852,9 +821,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -892,7 +861,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -998,7 +967,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1140,7 +1109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1178,7 +1147,7 @@
         <v>34</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>35</v>
@@ -1198,10 +1167,10 @@
         <v>39</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>54</v>
@@ -1211,7 +1180,7 @@
         <v>42</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H2" s="13"/>
     </row>
@@ -1220,31 +1189,31 @@
         <v>44</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
@@ -1265,42 +1234,42 @@
     </row>
     <row r="5" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD48AA-5A4B-4823-B6ED-EFDC8FFA4C1B}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,20 +1333,20 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="11">
-        <v>90.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="11">
-        <v>89.5</v>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1385,119 +1354,23 @@
         <v>60</v>
       </c>
       <c r="B7" s="11">
-        <v>83.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="11">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="11">
-        <v>79.099999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="B9" s="11">
-        <v>78.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="11">
-        <v>77.599999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="11">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="11">
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="11">
-        <v>76.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="11">
-        <v>73.900000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="11">
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="11">
-        <v>70.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="11">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="11">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="11">
         <v>31.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="11">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2040,7 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2263,7 +2136,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2303,7 +2176,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3223,7 +3096,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5">
         <v>34.700000000000003</v>
@@ -3714,7 +3587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764638B3-CBDA-4083-BD0C-809F3F5B0023}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3727,58 +3600,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/databases/oportunidades/Oportunidad - Cierre de la brecha digital.xlsx
+++ b/databases/oportunidades/Oportunidad - Cierre de la brecha digital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{320ABA85-CB37-428B-8CB5-C1390D94B560}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{208D6688-61F7-411A-9C5D-FE5C571F3D41}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{320ABA85-CB37-428B-8CB5-C1390D94B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208D6688-61F7-411A-9C5D-FE5C571F3D41}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -779,7 +779,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja3"/>
@@ -821,9 +821,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -861,7 +861,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -967,7 +967,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1109,7 +1109,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2040,8 +2040,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3587,7 +3587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764638B3-CBDA-4083-BD0C-809F3F5B0023}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/databases/oportunidades/Oportunidad - Cierre de la brecha digital.xlsx
+++ b/databases/oportunidades/Oportunidad - Cierre de la brecha digital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{320ABA85-CB37-428B-8CB5-C1390D94B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208D6688-61F7-411A-9C5D-FE5C571F3D41}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{320ABA85-CB37-428B-8CB5-C1390D94B560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E0F21FC-C4C5-4B79-9E64-E4C075ED9C7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{D73770B7-7AB5-4EF3-BC82-2C50722BF4EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -68,9 +68,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="97">
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Urbana</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Mundo</t>
+  </si>
+  <si>
+    <t>Nacional</t>
   </si>
 </sst>
 </file>
@@ -1138,138 +1138,138 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="F5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD48AA-5A4B-4823-B6ED-EFDC8FFA4C1B}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -1303,15 +1303,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="11">
         <v>97.5</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="11">
         <v>96.9</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="11">
         <v>94.6</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="11">
         <v>83.1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="11">
         <v>77.599999999999994</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="11">
         <v>77.5</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="11">
         <v>67.5</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="11">
         <v>31.8</v>
@@ -1387,14 +1387,14 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8">
         <v>2011</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4">
         <v>36</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5">
         <v>44.9</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5">
         <v>10</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5">
         <v>45.5</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5">
         <v>26.6</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
         <v>20.2</v>
@@ -1724,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="16">
         <v>2018</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="16">
         <v>38.1</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="16">
         <v>28.7</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="16">
         <v>9</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="16">
         <v>4.5999999999999996</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="16">
         <v>9.6999999999999993</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="16">
         <v>5.8</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="16">
         <v>4.0999999999999996</v>
@@ -2040,15 +2040,15 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="8">
         <v>2011</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4">
         <v>36</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
         <v>44.9</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5">
         <v>45.5</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5">
         <v>26.6</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5">
         <v>20.2</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5">
         <v>15.8</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5">
         <v>32.1</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5">
         <v>20.399999999999999</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5">
         <v>42.8</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5">
         <v>23.3</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5">
         <v>18.3</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5">
         <v>46.6</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="5">
         <v>29.6</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="5">
         <v>18.100000000000001</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="5">
         <v>18.8</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5">
         <v>37</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5">
         <v>37</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="5">
         <v>33.299999999999997</v>
@@ -3008,7 +3008,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5">
         <v>28.3</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5">
         <v>53.667906825380399</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5">
         <v>34.700000000000003</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="5">
         <v>15.8</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="5">
         <v>26.8</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="5">
         <v>40.6</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="5">
         <v>29.5</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="5">
         <v>26</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="5">
         <v>26.9</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="5">
         <v>22.1</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="5">
         <v>45.3</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="5">
         <v>30.4</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="5">
         <v>26</v>
@@ -3600,58 +3600,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
